--- a/backend/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>7271ac55-9ddf-41b0-b05a-f17e6bd961d6</t>
+    <t>cf51a37a-c9c7-4687-8d06-1430d7b9d926</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>cf51a37a-c9c7-4687-8d06-1430d7b9d926</t>
+    <t>6bad065f-55d3-42cf-8935-0076d2a76154</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>6bad065f-55d3-42cf-8935-0076d2a76154</t>
+    <t>4248a057-c9b1-4488-878b-36735a6f5443</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>4248a057-c9b1-4488-878b-36735a6f5443</t>
+    <t>fdd0a670-939c-44d0-9536-d161cdd01e56</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>fdd0a670-939c-44d0-9536-d161cdd01e56</t>
+    <t>b4b60d83-bbf2-4ab2-972c-5ba278fbabc7</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>

--- a/backend/storage/app/xlsx/seed_cidades_ms.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ms.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-CLARENSE</t>
   </si>
   <si>
-    <t>b4b60d83-bbf2-4ab2-972c-5ba278fbabc7</t>
+    <t>47dc9e9f-3824-4bfa-a456-525760fa72cc</t>
   </si>
   <si>
     <t>ALCINÓPOLIS</t>
